--- a/Buck Converter/Soldering & Test Procedure.xlsx
+++ b/Buck Converter/Soldering & Test Procedure.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="421">
   <si>
     <t>SOLDER</t>
   </si>
@@ -1228,6 +1228,66 @@
   </si>
   <si>
     <t>5V / 3V3</t>
+  </si>
+  <si>
+    <t>HALF BRIDGE TESTS</t>
+  </si>
+  <si>
+    <t>Verification of Soft Turn-off</t>
+  </si>
+  <si>
+    <t>Soft Turn-off</t>
+  </si>
+  <si>
+    <t>Low DCV, Single Brg., DPT</t>
+  </si>
+  <si>
+    <t>Vgs Waveform</t>
+  </si>
+  <si>
+    <t>Verification of SCP Signal Generation</t>
+  </si>
+  <si>
+    <t>dI/dt creation</t>
+  </si>
+  <si>
+    <t>Verification of SC Protection Mechanism</t>
+  </si>
+  <si>
+    <t>Safe Turn-off</t>
+  </si>
+  <si>
+    <t>Low DCV, Double Brg., DPT</t>
+  </si>
+  <si>
+    <t>Vgs Waveforms</t>
+  </si>
+  <si>
+    <t>Vgs Waveform Obs.</t>
+  </si>
+  <si>
+    <t>9V, 5V Waveform Obs</t>
+  </si>
+  <si>
+    <t>DC Voltages</t>
+  </si>
+  <si>
+    <t>Mid DCV, Double Brg., DPT</t>
+  </si>
+  <si>
+    <t>Mid DCV, Single Brg., DPT</t>
+  </si>
+  <si>
+    <t>Half Bridge -1</t>
+  </si>
+  <si>
+    <t>Half Bridge -2</t>
+  </si>
+  <si>
+    <t>Vds Waveform</t>
+  </si>
+  <si>
+    <t>BUCK CONVERTER TESTS</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1995,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B22:F227" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B22:F227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B22:F230" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B22:F230"/>
   <tableColumns count="5">
     <tableColumn id="1" name="BUT"/>
     <tableColumn id="2" name="Test"/>
@@ -6418,10 +6478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,7 +6489,7 @@
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
@@ -6641,9 +6701,6 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45" t="s">
         <v>368</v>
@@ -6814,7 +6871,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>350</v>
@@ -6829,7 +6886,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" t="s">
         <v>350</v>
@@ -6844,7 +6901,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
       <c r="B35" t="s">
         <v>350</v>
@@ -6859,7 +6916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
       <c r="B36" t="s">
         <v>350</v>
@@ -6874,7 +6931,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
       <c r="B37" t="s">
         <v>350</v>
@@ -6889,7 +6946,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
       <c r="B38" t="s">
         <v>350</v>
@@ -6904,7 +6961,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" t="s">
         <v>350</v>
@@ -6919,7 +6976,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" t="s">
         <v>350</v>
@@ -6934,7 +6991,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" t="s">
         <v>350</v>
@@ -6949,7 +7006,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" t="s">
         <v>350</v>
@@ -6964,7 +7021,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
       <c r="B43" t="s">
         <v>350</v>
@@ -6979,7 +7036,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
       <c r="B44" t="s">
         <v>350</v>
@@ -6994,7 +7051,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
       <c r="B45" t="s">
         <v>350</v>
@@ -7008,6 +7065,357 @@
       <c r="E45" t="s">
         <v>397</v>
       </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" t="s">
+        <v>406</v>
+      </c>
+      <c r="D49" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" t="s">
+        <v>417</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D54" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" t="s">
+        <v>413</v>
+      </c>
+      <c r="E57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" t="s">
+        <v>418</v>
+      </c>
+      <c r="C60" t="s">
+        <v>402</v>
+      </c>
+      <c r="D60" t="s">
+        <v>378</v>
+      </c>
+      <c r="E60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61" t="s">
+        <v>406</v>
+      </c>
+      <c r="D61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" t="s">
+        <v>418</v>
+      </c>
+      <c r="C62" t="s">
+        <v>408</v>
+      </c>
+      <c r="D62" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" t="s">
+        <v>418</v>
+      </c>
+      <c r="C63" t="s">
+        <v>416</v>
+      </c>
+      <c r="D63" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" t="s">
+        <v>378</v>
+      </c>
+      <c r="E64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" t="s">
+        <v>410</v>
+      </c>
+      <c r="D65" t="s">
+        <v>412</v>
+      </c>
+      <c r="E65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" t="s">
+        <v>418</v>
+      </c>
+      <c r="C66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D67" t="s">
+        <v>412</v>
+      </c>
+      <c r="E67" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" t="s">
+        <v>418</v>
+      </c>
+      <c r="C68" t="s">
+        <v>415</v>
+      </c>
+      <c r="D68" t="s">
+        <v>378</v>
+      </c>
+      <c r="E68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" t="s">
+        <v>418</v>
+      </c>
+      <c r="C69" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" t="s">
+        <v>413</v>
+      </c>
+      <c r="E69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="44"/>
+      <c r="C70" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buck Converter/Soldering & Test Procedure.xlsx
+++ b/Buck Converter/Soldering & Test Procedure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="SOLDER" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="422">
   <si>
     <t>SOLDER</t>
   </si>
@@ -1288,6 +1288,9 @@
   </si>
   <si>
     <t>BUCK CONVERTER TESTS</t>
+  </si>
+  <si>
+    <t>Safe State (850V)</t>
   </si>
 </sst>
 </file>
@@ -2271,10 +2274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6468,7 +6474,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -6480,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6741,6 +6747,9 @@
       <c r="E23" t="s">
         <v>373</v>
       </c>
+      <c r="F23" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -6756,6 +6765,9 @@
       <c r="E24" t="s">
         <v>373</v>
       </c>
+      <c r="F24" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
@@ -6771,6 +6783,9 @@
       <c r="E25" t="s">
         <v>373</v>
       </c>
+      <c r="F25" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
@@ -6786,6 +6801,9 @@
       <c r="E26" t="s">
         <v>373</v>
       </c>
+      <c r="F26" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
@@ -6801,6 +6819,9 @@
       <c r="E27" t="s">
         <v>373</v>
       </c>
+      <c r="F27" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
@@ -6816,6 +6837,9 @@
       <c r="E28" t="s">
         <v>373</v>
       </c>
+      <c r="F28" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
@@ -6831,6 +6855,9 @@
       <c r="E29" t="s">
         <v>373</v>
       </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
@@ -6846,6 +6873,9 @@
       <c r="E30" t="s">
         <v>373</v>
       </c>
+      <c r="F30" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
@@ -6860,6 +6890,9 @@
       </c>
       <c r="E31" t="s">
         <v>373</v>
+      </c>
+      <c r="F31" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">

--- a/Buck Converter/Soldering & Test Procedure.xlsx
+++ b/Buck Converter/Soldering & Test Procedure.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SOLDER" sheetId="1" r:id="rId1"/>
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="430">
   <si>
     <t>SOLDER</t>
   </si>
@@ -1291,6 +1292,30 @@
   </si>
   <si>
     <t>Safe State (850V)</t>
+  </si>
+  <si>
+    <t>LED Driver is changed</t>
+  </si>
+  <si>
+    <t>DIN1 pin is changed</t>
+  </si>
+  <si>
+    <t>EN signalleri üretildi</t>
+  </si>
+  <si>
+    <t>Faz açısı ayarlanamadı, SW2'ye basınca fazda kayma oluyor</t>
+  </si>
+  <si>
+    <t>GPIO interrupt is which trigs STO with 10nsec delay</t>
+  </si>
+  <si>
+    <t>HTO is activated 250nsec after STO</t>
+  </si>
+  <si>
+    <t>No problem</t>
+  </si>
+  <si>
+    <t>The pulses are generated without any problem</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2304,7 @@
   </sheetPr>
   <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6486,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6497,7 +6522,7 @@
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,6 +6943,9 @@
       <c r="E33" t="s">
         <v>400</v>
       </c>
+      <c r="F33" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
@@ -6948,6 +6976,9 @@
       <c r="E35" t="s">
         <v>379</v>
       </c>
+      <c r="F35" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
@@ -6963,6 +6994,9 @@
       <c r="E36" t="s">
         <v>380</v>
       </c>
+      <c r="F36" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
@@ -6978,6 +7012,9 @@
       <c r="E37" t="s">
         <v>382</v>
       </c>
+      <c r="F37" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
@@ -6993,6 +7030,9 @@
       <c r="E38" t="s">
         <v>395</v>
       </c>
+      <c r="F38" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
@@ -7008,6 +7048,9 @@
       <c r="E39" t="s">
         <v>387</v>
       </c>
+      <c r="F39" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
@@ -7023,6 +7066,9 @@
       <c r="E40" t="s">
         <v>384</v>
       </c>
+      <c r="F40" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
@@ -7097,6 +7143,9 @@
       </c>
       <c r="E45" t="s">
         <v>397</v>
+      </c>
+      <c r="F45" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">

--- a/Buck Converter/Soldering & Test Procedure.xlsx
+++ b/Buck Converter/Soldering & Test Procedure.xlsx
@@ -16,7 +16,6 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="431">
   <si>
     <t>SOLDER</t>
   </si>
@@ -1316,6 +1315,9 @@
   </si>
   <si>
     <t>The pulses are generated without any problem</t>
+  </si>
+  <si>
+    <t>It is being measured without any problem</t>
   </si>
 </sst>
 </file>
@@ -6512,7 +6514,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7084,6 +7086,9 @@
       <c r="E41" t="s">
         <v>390</v>
       </c>
+      <c r="F41" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -7099,6 +7104,9 @@
       <c r="E42" t="s">
         <v>390</v>
       </c>
+      <c r="F42" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
@@ -7114,6 +7122,9 @@
       <c r="E43" t="s">
         <v>390</v>
       </c>
+      <c r="F43" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
@@ -7128,6 +7139,9 @@
       </c>
       <c r="E44" t="s">
         <v>390</v>
+      </c>
+      <c r="F44" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
